--- a/rawdata/FinalSet_Cleaned.xlsx
+++ b/rawdata/FinalSet_Cleaned.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flixpar/Dropbox/Research/covid-forecasting-review/analysis_v2/rawdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonia/Desktop/Review/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95F7C22-D3D7-0C48-ADA0-2E4965F4CA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084B6348-AC23-FD47-84AC-C99202FFA780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="940" windowWidth="35840" windowHeight="20200" xr2:uid="{28B1D89F-EF9B-8941-8FBB-3691ECCAA837}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="35840" windowHeight="19400" xr2:uid="{28B1D89F-EF9B-8941-8FBB-3691ECCAA837}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="409">
   <si>
     <t>Paper</t>
   </si>
@@ -336,9 +336,6 @@
     <t>state, town</t>
   </si>
   <si>
-    <t>RMSE, R2</t>
-  </si>
-  <si>
     <t>Count regression models for COVID-19</t>
   </si>
   <si>
@@ -519,9 +516,6 @@
     <t>cases, deaths </t>
   </si>
   <si>
-    <t>R2, RMSE</t>
-  </si>
-  <si>
     <t>Exploring the impacts of travel-implied policy factors on COVID-19 spread within communities based on multi-source data interpretations</t>
   </si>
   <si>
@@ -591,9 +585,6 @@
     <t>cases, growth rate</t>
   </si>
   <si>
-    <t>R2, AIC, SIC</t>
-  </si>
-  <si>
     <t>Forecasting spread of COVID-19 using google trends: A hybrid GWO-deep learning approach</t>
   </si>
   <si>
@@ -693,9 +684,6 @@
     <t>state </t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
     <t>limitations specific to the methods used, data</t>
   </si>
   <si>
@@ -714,9 +702,6 @@
     <t>exposed, cases, hospitalizations</t>
   </si>
   <si>
-    <t>NRMSE</t>
-  </si>
-  <si>
     <t>Modeling, state estimation, and optimal control for the US COVID-19 outbreak</t>
   </si>
   <si>
@@ -756,9 +741,6 @@
     <t>deaths </t>
   </si>
   <si>
-    <t>RMSE, MSE, MAPE, SMAPE</t>
-  </si>
-  <si>
     <t>some kind of PI</t>
   </si>
   <si>
@@ -957,9 +939,6 @@
     <t>‚ÄúStay nearby or get checked‚Äù: A Covid-19 control strategy</t>
   </si>
   <si>
-    <t>Going by the numbers : Learning and modeling COVID-19 disease dynamics</t>
-  </si>
-  <si>
     <t>An Agent-Based Modeling of COVID-19: Validation, Analysis, and Recommendations</t>
   </si>
   <si>
@@ -1023,12 +1002,6 @@
     <t>MSE, RMSE, AFER</t>
   </si>
   <si>
-    <t>Effect of mitigation measures on the spreading of COVID-19 in hard-hit states in the U.S</t>
-  </si>
-  <si>
-    <t>deaths, cases</t>
-  </si>
-  <si>
     <t>Implementation of the SutteARIMA method to predict short-term cases of stock market and COVID-19 pandemic in USA</t>
   </si>
   <si>
@@ -1263,9 +1236,6 @@
     <t>metric-based</t>
   </si>
   <si>
-    <t>one model</t>
-  </si>
-  <si>
     <t>compare to hub</t>
   </si>
   <si>
@@ -1282,6 +1252,15 @@
   </si>
   <si>
     <t>Forecasting,</t>
+  </si>
+  <si>
+    <t>State-level needs for social distancing and contact tracing to contain COVID-19 in the United States</t>
+  </si>
+  <si>
+    <t>CIs/Pis</t>
+  </si>
+  <si>
+    <t>evaluate one model</t>
   </si>
 </sst>
 </file>
@@ -1722,11 +1701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA921ED-BF1D-1444-AF99-26FBE1ABE33C}">
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="C60" zoomScale="242" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1767,10 +1745,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -1808,7 +1786,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>55</v>
@@ -1817,68 +1795,68 @@
         <v>55</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
+      <c r="E3" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>27</v>
+      <c r="A4" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>408</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
+      <c r="E4" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>311</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>33</v>
@@ -1887,22 +1865,20 @@
         <v>34</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1913,30 +1889,30 @@
         <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>41</v>
+      <c r="A6" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>55</v>
@@ -1944,71 +1920,69 @@
       <c r="C6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>43</v>
+      <c r="A7" s="12" t="s">
+        <v>355</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
+      <c r="E7" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>25</v>
@@ -2017,49 +1991,49 @@
         <v>25</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2151,10 +2125,10 @@
         <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
@@ -2218,7 +2192,7 @@
         <v>38</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>25</v>
@@ -2231,18 +2205,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>70</v>
+      <c r="A13" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2253,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>23</v>
@@ -2262,34 +2234,36 @@
         <v>28</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>73</v>
+      <c r="A14" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>408</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>29</v>
@@ -2301,94 +2275,98 @@
         <v>23</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>25</v>
+        <v>365</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>25</v>
+        <v>365</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>77</v>
+      <c r="A16" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>400</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>367</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>25</v>
@@ -2397,40 +2375,42 @@
         <v>25</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>78</v>
+      <c r="A17" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>400</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>28</v>
+        <v>358</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>28</v>
+        <v>359</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>25</v>
@@ -2439,12 +2419,12 @@
         <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>55</v>
@@ -2471,7 +2451,7 @@
         <v>23</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>40</v>
@@ -2488,7 +2468,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>55</v>
@@ -2496,24 +2476,26 @@
       <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>40</v>
@@ -2525,12 +2507,12 @@
         <v>25</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>55</v>
@@ -2543,7 +2525,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>21</v>
@@ -2558,7 +2540,7 @@
         <v>28</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>25</v>
@@ -2567,25 +2549,25 @@
         <v>25</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>29</v>
@@ -2594,13 +2576,13 @@
         <v>48</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>25</v>
@@ -2609,40 +2591,40 @@
         <v>25</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>87</v>
+      <c r="A22" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>412</v>
+        <v>22</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>25</v>
@@ -2651,12 +2633,12 @@
         <v>25</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>91</v>
+      <c r="A23" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>55</v>
@@ -2665,65 +2647,65 @@
         <v>55</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="2" t="s">
-        <v>19</v>
+      <c r="E23" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>92</v>
+        <v>278</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>40</v>
@@ -2735,12 +2717,12 @@
         <v>25</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>55</v>
@@ -2753,10 +2735,10 @@
         <v>19</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>22</v>
@@ -2765,66 +2747,68 @@
         <v>23</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>55</v>
@@ -2837,22 +2821,22 @@
         <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>25</v>
@@ -2861,96 +2845,96 @@
         <v>25</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>101</v>
+      <c r="A28" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="2" t="s">
-        <v>19</v>
+      <c r="E28" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>103</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>111</v>
+      <c r="A30" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>55</v>
@@ -2958,21 +2942,23 @@
       <c r="C30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2" t="s">
-        <v>19</v>
+      <c r="D30" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>92</v>
+        <v>362</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>38</v>
@@ -2981,39 +2967,37 @@
         <v>40</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>114</v>
+      <c r="A31" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>19</v>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>23</v>
@@ -3022,7 +3006,7 @@
         <v>28</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>25</v>
@@ -3036,56 +3020,56 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>399</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -3094,48 +3078,46 @@
         <v>28</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>29</v>
@@ -3144,13 +3126,13 @@
         <v>48</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>25</v>
@@ -3159,166 +3141,166 @@
         <v>25</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>126</v>
+      <c r="A36" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>48</v>
+        <v>402</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>69</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>25</v>
@@ -3327,12 +3309,12 @@
         <v>25</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>132</v>
+      <c r="A39" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>55</v>
@@ -3345,55 +3327,55 @@
         <v>19</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>65</v>
@@ -3405,94 +3387,96 @@
         <v>40</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E42" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>26</v>
@@ -3500,35 +3484,37 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>33</v>
@@ -3537,111 +3523,113 @@
         <v>34</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E45" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>159</v>
+      <c r="A46" s="10" t="s">
+        <v>369</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>140</v>
+        <v>357</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>29</v>
@@ -3650,40 +3638,42 @@
         <v>48</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>161</v>
+        <v>371</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>162</v>
+      <c r="A47" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>163</v>
+        <v>362</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>29</v>
@@ -3692,128 +3682,126 @@
         <v>48</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>25</v>
+        <v>363</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>168</v>
+      <c r="A49" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>140</v>
+        <v>357</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>169</v>
+        <v>373</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>48</v>
+        <v>374</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>408</v>
+        <v>26</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>29</v>
@@ -3822,57 +3810,55 @@
         <v>48</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>25</v>
@@ -3881,54 +3867,54 @@
         <v>25</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>176</v>
+      <c r="A52" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>180</v>
+        <v>133</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N52" s="5" t="s">
-        <v>182</v>
+        <v>135</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
-        <v>183</v>
+      <c r="A53" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>55</v>
@@ -3936,29 +3922,27 @@
       <c r="C53" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>185</v>
+      <c r="K53" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>25</v>
@@ -3967,27 +3951,27 @@
         <v>25</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>186</v>
+      <c r="A54" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>140</v>
+        <v>357</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>29</v>
@@ -3996,115 +3980,113 @@
         <v>48</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>189</v>
+      <c r="A55" s="10" t="s">
+        <v>384</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>408</v>
+        <v>26</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>140</v>
+        <v>357</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>55</v>
@@ -4114,28 +4096,28 @@
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>50</v>
@@ -4145,38 +4127,38 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>198</v>
+      <c r="A58" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>140</v>
+        <v>357</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" s="13" t="s">
         <v>29</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>25</v>
@@ -4185,98 +4167,96 @@
         <v>25</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>86</v>
+        <v>34</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="K60" s="3" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>55</v>
@@ -4286,217 +4266,221 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>55</v>
+        <v>408</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N62" s="5" t="s">
-        <v>215</v>
+      <c r="N62" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E63" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>220</v>
+        <v>25</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>55</v>
+        <v>408</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="J64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N64" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N65" s="6" t="s">
-        <v>182</v>
+        <v>25</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>227</v>
+      <c r="A66" s="12" t="s">
+        <v>343</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>55</v>
+        <v>408</v>
       </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="2" t="s">
-        <v>140</v>
+      <c r="E66" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>38</v>
@@ -4505,63 +4489,63 @@
         <v>21</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>53</v>
+        <v>405</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>38</v>
+        <v>344</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N66" s="6" t="s">
-        <v>228</v>
+        <v>25</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>25</v>
@@ -4572,101 +4556,103 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N68" s="6" t="s">
-        <v>220</v>
+      <c r="N68" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D69" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E69" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>69</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N69" s="6" t="s">
-        <v>236</v>
+        <v>25</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>38</v>
@@ -4675,30 +4661,30 @@
         <v>29</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N70" s="6" t="s">
-        <v>242</v>
+      <c r="N70" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
-        <v>243</v>
+      <c r="A71" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>55</v>
@@ -4706,56 +4692,58 @@
       <c r="C71" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="2" t="s">
-        <v>140</v>
+      <c r="D71" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>21</v>
+        <v>294</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N71" s="6" t="s">
-        <v>246</v>
+      <c r="N71" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>29</v>
@@ -4767,10 +4755,10 @@
         <v>23</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>25</v>
@@ -4779,12 +4767,12 @@
         <v>25</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>249</v>
+      <c r="A73" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>55</v>
@@ -4792,54 +4780,58 @@
       <c r="C73" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E73" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K73" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N73" s="6" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D74" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E74" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>29</v>
@@ -4848,13 +4840,13 @@
         <v>48</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>25</v>
@@ -4862,41 +4854,43 @@
       <c r="M74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N74" s="6" t="s">
-        <v>246</v>
+      <c r="N74" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D75" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E75" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>25</v>
@@ -4910,71 +4904,73 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D76" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E76" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>28</v>
@@ -4983,37 +4979,37 @@
         <v>40</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N77" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>29</v>
+      <c r="G78" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>23</v>
@@ -5025,60 +5021,62 @@
         <v>40</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N78" s="6" t="s">
-        <v>182</v>
+        <v>25</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="3"/>
+        <v>408</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E79" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>263</v>
+        <v>38</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
-        <v>264</v>
+      <c r="A80" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>55</v>
@@ -5087,74 +5085,76 @@
         <v>55</v>
       </c>
       <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
-        <v>265</v>
+      <c r="E80" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N80" s="5" t="s">
-        <v>246</v>
+        <v>50</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
-        <v>265</v>
+        <v>55</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>268</v>
+        <v>28</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>26</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>55</v>
@@ -5171,20 +5171,20 @@
         <v>55</v>
       </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="3" t="s">
-        <v>265</v>
+      <c r="E82" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>28</v>
@@ -5193,18 +5193,18 @@
         <v>40</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N82" s="5" t="s">
-        <v>60</v>
+      <c r="N82" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
-        <v>273</v>
+      <c r="A83" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>55</v>
@@ -5214,94 +5214,94 @@
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G83" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G83" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>274</v>
+        <v>156</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>49</v>
+        <v>308</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="8" t="s">
-        <v>275</v>
+      <c r="A84" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>55</v>
+        <v>408</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>49</v>
+        <v>324</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N84" s="5" t="s">
-        <v>278</v>
+        <v>34</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
-        <v>279</v>
+      <c r="A85" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>29</v>
@@ -5310,124 +5310,128 @@
         <v>48</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>281</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
-        <v>282</v>
+      <c r="A86" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="E86" s="3" t="s">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>38</v>
+        <v>378</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>283</v>
+        <v>21</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>413</v>
+        <v>143</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
-        <v>285</v>
+      <c r="A87" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" s="3"/>
+        <v>400</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="E87" s="3" t="s">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>262</v>
+        <v>388</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>286</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
-        <v>287</v>
+      <c r="A88" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>29</v>
@@ -5436,69 +5440,69 @@
         <v>48</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N88" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
-        <v>290</v>
+      <c r="A89" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>55</v>
+        <v>408</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>286</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
-        <v>291</v>
+      <c r="A90" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>55</v>
@@ -5507,17 +5511,17 @@
         <v>55</v>
       </c>
       <c r="D90" s="3"/>
-      <c r="E90" s="3" t="s">
-        <v>265</v>
+      <c r="E90" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>23</v>
@@ -5526,191 +5530,189 @@
         <v>38</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
-        <v>292</v>
+      <c r="A91" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>55</v>
+        <v>408</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>153</v>
+        <v>28</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D92" s="3"/>
-      <c r="E92" s="3" t="s">
-        <v>265</v>
+      <c r="E92" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>265</v>
+        <v>55</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>296</v>
+        <v>40</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="3" t="s">
-        <v>265</v>
+      <c r="E94" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>246</v>
+        <v>50</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>55</v>
@@ -5719,168 +5721,170 @@
         <v>55</v>
       </c>
       <c r="D95" s="3"/>
-      <c r="E95" s="3" t="s">
-        <v>265</v>
+      <c r="E95" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N95" s="3" t="s">
-        <v>286</v>
+        <v>50</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>301</v>
+        <v>224</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3" t="s">
-        <v>265</v>
+        <v>31</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>302</v>
+        <v>28</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>303</v>
+        <v>177</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>305</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="8" t="s">
-        <v>306</v>
+      <c r="A97" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D97" s="3"/>
+        <v>400</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="E97" s="3" t="s">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J97" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="K97" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>55</v>
@@ -5890,67 +5894,67 @@
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G99" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N99" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>310</v>
+      <c r="A100" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="3" t="s">
-        <v>265</v>
+      <c r="E100" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F100" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J100" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="K100" s="3" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>33</v>
@@ -5958,128 +5962,128 @@
       <c r="M100" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>281</v>
+      <c r="N100" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>286</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>316</v>
+      <c r="A102" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>55</v>
+        <v>408</v>
       </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="3" t="s">
-        <v>265</v>
+      <c r="E102" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G102" s="13" t="s">
+      <c r="G102" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>28</v>
+        <v>353</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>34</v>
@@ -6089,8 +6093,8 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>319</v>
+      <c r="A104" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>55</v>
@@ -6099,95 +6103,97 @@
         <v>55</v>
       </c>
       <c r="D104" s="3"/>
-      <c r="E104" s="3" t="s">
-        <v>265</v>
+      <c r="E104" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G105" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M104" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N104" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N105" s="3" t="s">
-        <v>322</v>
+        <v>34</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>323</v>
+      <c r="A106" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>408</v>
+        <v>26</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3" t="s">
-        <v>265</v>
+        <v>26</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>29</v>
@@ -6199,10 +6205,10 @@
         <v>23</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="L106" s="3" t="s">
         <v>25</v>
@@ -6215,8 +6221,8 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>325</v>
+      <c r="A107" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>55</v>
@@ -6225,56 +6231,56 @@
         <v>55</v>
       </c>
       <c r="D107" s="3"/>
-      <c r="E107" s="3" t="s">
-        <v>265</v>
+      <c r="E107" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N107" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>327</v>
+      <c r="A108" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="D108" s="3"/>
-      <c r="E108" s="3" t="s">
-        <v>265</v>
+      <c r="E108" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>48</v>
@@ -6286,7 +6292,7 @@
         <v>28</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>328</v>
+        <v>32</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>25</v>
@@ -6294,125 +6300,127 @@
       <c r="M108" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N108" s="3" t="s">
-        <v>26</v>
+      <c r="N108" s="6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>329</v>
+      <c r="A109" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>55</v>
+        <v>408</v>
       </c>
       <c r="D109" s="3"/>
-      <c r="E109" s="3" t="s">
-        <v>265</v>
+      <c r="E109" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" s="3"/>
+        <v>400</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="E110" s="3" t="s">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>24</v>
+        <v>380</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>334</v>
+      <c r="A111" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D111" s="3"/>
-      <c r="E111" s="3" t="s">
-        <v>265</v>
+      <c r="E111" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>25</v>
@@ -6425,105 +6433,105 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>335</v>
+      <c r="A112" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D112" s="3"/>
-      <c r="E112" s="3" t="s">
-        <v>336</v>
+      <c r="E112" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>337</v>
+        <v>63</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>338</v>
+        <v>28</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>339</v>
+        <v>252</v>
       </c>
       <c r="M112" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N112" s="3" t="s">
-        <v>95</v>
+      <c r="N112" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>55</v>
+        <v>408</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="F113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>29</v>
@@ -6535,150 +6543,152 @@
         <v>23</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>346</v>
+        <v>40</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="M114" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N114" s="3" t="s">
-        <v>51</v>
+      <c r="N114" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>48</v>
+      <c r="H115" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>349</v>
+        <v>49</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N115" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>350</v>
+      <c r="A116" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D116" s="3"/>
-      <c r="E116" s="3" t="s">
-        <v>344</v>
+      <c r="E116" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>351</v>
+        <v>28</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N116" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="12" t="s">
-        <v>352</v>
+      <c r="A117" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D117" s="3"/>
+      <c r="D117" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="E117" s="3" t="s">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="F117" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J117" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="K117" s="3" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>355</v>
+      <c r="A118" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>55</v>
@@ -6688,10 +6698,10 @@
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>21</v>
@@ -6700,40 +6710,42 @@
         <v>45</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="M118" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N118" s="3" t="s">
-        <v>26</v>
+      <c r="N118" s="5" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>28</v>
+        <v>390</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>29</v>
@@ -6742,13 +6754,13 @@
         <v>48</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>358</v>
+        <v>28</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>33</v>
@@ -6757,43 +6769,43 @@
         <v>34</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>360</v>
+      <c r="A120" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>55</v>
+        <v>401</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>363</v>
+        <v>265</v>
       </c>
       <c r="M120" s="3" t="s">
         <v>34</v>
@@ -6803,300 +6815,288 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="12" t="s">
-        <v>364</v>
+      <c r="A121" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N121" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>365</v>
+      <c r="A122" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>367</v>
+        <v>38</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="10" t="s">
-        <v>370</v>
+      <c r="A123" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>371</v>
+        <v>270</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>372</v>
+        <v>49</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N123" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="N123" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="10" t="s">
-        <v>373</v>
+      <c r="A124" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>408</v>
+        <v>26</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G124" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H124" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M124" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N124" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J125" s="3" t="s">
+      <c r="H126" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J126" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K125" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L125" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="M125" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="N125" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="K126" s="3" t="s">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>51</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="12" t="s">
-        <v>377</v>
+      <c r="A127" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>371</v>
+        <v>282</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>25</v>
@@ -7105,112 +7105,106 @@
         <v>25</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="10" t="s">
-        <v>378</v>
+      <c r="A128" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G128" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N128" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="H129" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="L128" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M128" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N128" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K129" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" s="10" t="s">
-        <v>384</v>
+      <c r="A130" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>38</v>
@@ -7219,30 +7213,30 @@
         <v>29</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J130" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N130" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="10" t="s">
-        <v>386</v>
+      <c r="A131" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>55</v>
@@ -7250,23 +7244,21 @@
       <c r="C131" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>366</v>
-      </c>
+      <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>21</v>
+        <v>287</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>28</v>
@@ -7281,24 +7273,22 @@
         <v>50</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>388</v>
+      <c r="A132" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>408</v>
+        <v>26</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>38</v>
@@ -7310,377 +7300,326 @@
         <v>48</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>389</v>
+        <v>40</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>390</v>
+      <c r="A133" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>409</v>
+        <v>31</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>392</v>
+        <v>290</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="10" t="s">
-        <v>393</v>
+      <c r="A134" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="J134" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K134" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L134" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M134" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N134" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A135" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G135" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K135" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L135" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M135" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N135" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="G136" s="3" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="M136" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="10" t="s">
-        <v>396</v>
+      <c r="A137" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>397</v>
+        <v>296</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="M137" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D138" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J138" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M138" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M139" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N138" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K139" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M139" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="N139" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A140" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L140" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M140" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N140" s="3" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N138">
+    <sortCondition ref="A1:A138"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/rawdata/FinalSet_Cleaned.xlsx
+++ b/rawdata/FinalSet_Cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonia/Desktop/Review/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084B6348-AC23-FD47-84AC-C99202FFA780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1518952B-248E-CF42-A5FC-DE1B1E70DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1300" windowWidth="35840" windowHeight="19400" xr2:uid="{28B1D89F-EF9B-8941-8FBB-3691ECCAA837}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="394">
   <si>
     <t>Paper</t>
   </si>
@@ -96,15 +96,9 @@
     <t>Felix</t>
   </si>
   <si>
-    <t>cases, deaths, recoveries</t>
-  </si>
-  <si>
     <t>compartmental</t>
   </si>
   <si>
-    <t>Projections</t>
-  </si>
-  <si>
     <t>national</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>statistical</t>
   </si>
   <si>
-    <t>Projections, Interventions</t>
-  </si>
-  <si>
     <t>compare internally</t>
   </si>
   <si>
@@ -153,51 +144,30 @@
     <t>cases, deaths</t>
   </si>
   <si>
-    <t>cases, recoveries</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>A SIR-type model describing the successive waves of COVID-19</t>
   </si>
   <si>
-    <t>cases, recoveries, deaths</t>
-  </si>
-  <si>
     <t>A Spatiotemporal Tool to Project Hospital Critical Care Capacity and Mortality From COVID-19 in US Counties</t>
   </si>
   <si>
     <t>cases, mobility, hospitalizations</t>
   </si>
   <si>
-    <t>Projections, Scenarios, Interventions</t>
-  </si>
-  <si>
     <t>data, limitations specific to the methods used, note factors that were not accounted for in their model</t>
   </si>
   <si>
     <t>A data-driven model to describe and forecast the dynamics of COVID-19 transmission</t>
   </si>
   <si>
-    <t>Forecasting</t>
-  </si>
-  <si>
-    <t>no but multiple scenarios</t>
-  </si>
-  <si>
-    <t>scenarios</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
     <t>A model and predictions for COVID-19 considering population behavior and vaccination</t>
   </si>
   <si>
-    <t>Projections, Scenarios</t>
-  </si>
-  <si>
     <t>state, city</t>
   </si>
   <si>
@@ -222,15 +192,9 @@
     <t>A multi-method approach to modeling COVID-19 disease dynamics in the United States</t>
   </si>
   <si>
-    <t>cases, deaths, demographics, hospital capacity</t>
-  </si>
-  <si>
     <t>hybrid</t>
   </si>
   <si>
-    <t>Forecasting, Scenarios, Interventions</t>
-  </si>
-  <si>
     <t>state, county</t>
   </si>
   <si>
@@ -303,9 +267,6 @@
     <t>mobility</t>
   </si>
   <si>
-    <t>Forecasting, Scenarios</t>
-  </si>
-  <si>
     <t>data, limitations specific to the methods used, note factors that were not accounted for in their model, unknown factors that affect covid outcomes</t>
   </si>
   <si>
@@ -318,9 +279,6 @@
     <t>COVID-19 infection data encode a dynamic reproduction number in response to policy decisions with secondary wave implications</t>
   </si>
   <si>
-    <t>Forecasting, Projections, Scenarios</t>
-  </si>
-  <si>
     <t>unknown factors that affect covid outcomes</t>
   </si>
   <si>
@@ -351,15 +309,9 @@
     <t>cases, deaths, testing, hospitalizations, demographics, human behavior</t>
   </si>
   <si>
-    <t>Forecasting, Projections, Scenarios, Interventions</t>
-  </si>
-  <si>
     <t>national, state, county</t>
   </si>
   <si>
-    <t>cases, deaths, recoveries, hospitalizations, tests</t>
-  </si>
-  <si>
     <t>80% CIs</t>
   </si>
   <si>
@@ -432,18 +384,6 @@
     <t>Effects of COVID-19 vaccination timing and risk prioritization on mortality rates, United States</t>
   </si>
   <si>
-    <t>mobility, cases, hospitalization, demographic</t>
-  </si>
-  <si>
-    <t>cases, deaths, hospitalizations, recoveries</t>
-  </si>
-  <si>
-    <t>multiple scenarios, sensitivity analysis, 95% CIs</t>
-  </si>
-  <si>
-    <t>scenarios, sensitivity analysis, CIs/PIs</t>
-  </si>
-  <si>
     <t>Effects of short-term travel on COVID-19 spread: A novel SEIR model and case study in Minnesota</t>
   </si>
   <si>
@@ -465,15 +405,9 @@
     <t>cases, deaths, testing, hospitalizations</t>
   </si>
   <si>
-    <t>Projections, Interventions, Scenarios</t>
-  </si>
-  <si>
     <t>cases, deaths, peak cases, total deaths</t>
   </si>
   <si>
-    <t>no but multiple scenarios. one "projection band" shown out of 8 graphs</t>
-  </si>
-  <si>
     <t>Evaluating short-term forecasting of COVID-19 cases among different epidemiological models under a Bayesian framework</t>
   </si>
   <si>
@@ -489,9 +423,6 @@
     <t>Evaluating the impact of mobility on COVID-19 pandemic with machine learning hybrid predictions</t>
   </si>
   <si>
-    <t>cases, demographics, weather, mobility, policy</t>
-  </si>
-  <si>
     <t>statistical </t>
   </si>
   <si>
@@ -501,15 +432,9 @@
     <t>Evaluation of COVID-19 vaccination strategies with a delayed second dose</t>
   </si>
   <si>
-    <t>demographic, hospitalizations, health risk factors, vaccination</t>
-  </si>
-  <si>
     <t>cases, hospitalizations, deaths</t>
   </si>
   <si>
-    <t>no but multiple scenarios </t>
-  </si>
-  <si>
     <t>Evolutionary modelling of the COVID-19 pandemic in fifteen most affected countries</t>
   </si>
   <si>
@@ -531,9 +456,6 @@
     <t>Forecast and evaluation of COVID-19 spreading in USA with reduced-space Gaussian process regression</t>
   </si>
   <si>
-    <t>cases, deaths, recoveries, peak cases, peak deaths, total deaths</t>
-  </si>
-  <si>
     <t>Forecasting Brazilian and American COVID-19 cases based on artificial intelligence coupled with climatic exogenous variables</t>
   </si>
   <si>
@@ -555,9 +477,6 @@
     <t>Forecasting COVID-19 pandemic using optimal singular spectrum analysis</t>
   </si>
   <si>
-    <t>cases, deaths, testing, policy, mobility, demographic, human behavior</t>
-  </si>
-  <si>
     <t>Forecasting and planning during a pandemic: COVID-19 growth rates, supply chain disruptions, and governmental decisions</t>
   </si>
   <si>
@@ -639,12 +558,6 @@
     <t>cases, symptomatic cases</t>
   </si>
   <si>
-    <t>some kind of PIs shown on plots but not specified what it is, multiple scenarios</t>
-  </si>
-  <si>
-    <t>CIs/PIs, scenarios</t>
-  </si>
-  <si>
     <t>Impact of US vaccination strategy on COVID-19 wave dynamics</t>
   </si>
   <si>
@@ -654,15 +567,9 @@
     <t>regional (groups of states)</t>
   </si>
   <si>
-    <t>no but multiple scenarios (only based on vaccination rate though)</t>
-  </si>
-  <si>
     <t>Modeling COVID-19 Dynamics in Illinois under Nonpharmaceutical Interventions</t>
   </si>
   <si>
-    <t>hosptialization</t>
-  </si>
-  <si>
     <t>state, regional (within state)</t>
   </si>
   <si>
@@ -690,9 +597,6 @@
     <t>Modeling and forecasting of COVID-19 using a hybrid dynamic model based on SEIRD with ARIMA corrections</t>
   </si>
   <si>
-    <t>Projections </t>
-  </si>
-  <si>
     <t>MAE, MSE, MLSE, nMAE, nMSE</t>
   </si>
   <si>
@@ -723,9 +627,6 @@
     <t>Pandemic velocity: Forecasting COVID-19 in the US with a machine learning &amp;amp; Bayesian time series compartmental model</t>
   </si>
   <si>
-    <t>Forecasting, Projections</t>
-  </si>
-  <si>
     <t>MASE</t>
   </si>
   <si>
@@ -750,9 +651,6 @@
     <t>Predicting the second wave of COVID-19 in Washtenaw County, MI</t>
   </si>
   <si>
-    <t>cases, hospitalizations, deaths, demographic</t>
-  </si>
-  <si>
     <t>some kind of PI. show full range of simulations that fall within a 10% error tolerance </t>
   </si>
   <si>
@@ -780,9 +678,6 @@
     <t>cases, policy, mobility</t>
   </si>
   <si>
-    <t>Forecasting </t>
-  </si>
-  <si>
     <t>Replicating and projecting the path of COVID-19 with a model-implied reproduction number</t>
   </si>
   <si>
@@ -804,9 +699,6 @@
     <t>Space-time covid-19 Bayesian SIR modeling in South Carolina</t>
   </si>
   <si>
-    <t>cases, deaths, demographic</t>
-  </si>
-  <si>
     <t>MSPE, MSE</t>
   </si>
   <si>
@@ -858,9 +750,6 @@
     <t>The Interplay of Demographic Variables and Social Distancing Scores in Deep Prediction of U.S. COVID-19 Cases</t>
   </si>
   <si>
-    <t>cases, deaths, demographic, mobility</t>
-  </si>
-  <si>
     <t>unknown factors that affect covid outcomes, note factors that were not accounted for in their model</t>
   </si>
   <si>
@@ -882,9 +771,6 @@
     <t>The forecast of COVID-19 spread risk at the county level</t>
   </si>
   <si>
-    <t>mobility, demographic, cases, deaths</t>
-  </si>
-  <si>
     <t>MAE, R2</t>
   </si>
   <si>
@@ -897,9 +783,6 @@
     <t>The spatiotemporal estimation of the risk and the international transmission of COVID-19: a global perspective</t>
   </si>
   <si>
-    <t>mobility, cases, demographic</t>
-  </si>
-  <si>
     <t>The suppression effect of emotional contagion in the COVID-19 pandemic: A multilayer hybrid modelling and simulation approach</t>
   </si>
   <si>
@@ -1023,9 +906,6 @@
     <t>compartmental </t>
   </si>
   <si>
-    <t>cases, deaths, recoveries, curves of probabilities that cases/deaths/recoveries will exceed certain values</t>
-  </si>
-  <si>
     <t>exceedance probabilities (prob that true value will exceed a given value)</t>
   </si>
   <si>
@@ -1053,9 +933,6 @@
     <t>Interpreting, analysing and modelling COVID-19 mortality data</t>
   </si>
   <si>
-    <t>deaths, demographic, policy</t>
-  </si>
-  <si>
     <t>80% PIs</t>
   </si>
   <si>
@@ -1092,9 +969,6 @@
     <t>Population agglomeration is a harbinger of the spatial complexity of COVID-19</t>
   </si>
   <si>
-    <t>cases, demographic</t>
-  </si>
-  <si>
     <t>"spectral slope" (indicator of cases)</t>
   </si>
   <si>
@@ -1158,9 +1032,6 @@
     <t>mobility, cases, deaths</t>
   </si>
   <si>
-    <t>Interventions, Scenarios</t>
-  </si>
-  <si>
     <t>EpiCovDA: a mechanistic COVID-19 forecasting model with data assimilation </t>
   </si>
   <si>
@@ -1242,18 +1113,9 @@
     <t>compare to hub, compare internally</t>
   </si>
   <si>
-    <t>Forecasting, Scenarios, Projections</t>
-  </si>
-  <si>
-    <t>Forecasting, Projections, Interventions, Scenarios</t>
-  </si>
-  <si>
     <t>A predictive model for Covid-19 spread applied to eight US states</t>
   </si>
   <si>
-    <t>Forecasting,</t>
-  </si>
-  <si>
     <t>State-level needs for social distancing and contact tracing to contain COVID-19 in the United States</t>
   </si>
   <si>
@@ -1261,6 +1123,99 @@
   </si>
   <si>
     <t>evaluate one model</t>
+  </si>
+  <si>
+    <t>sensitivity analysis, 95% CIs</t>
+  </si>
+  <si>
+    <t>sensitivity analysis, CIs/PIs</t>
+  </si>
+  <si>
+    <t>some kind of PIs shown on plots but not specified what it is</t>
+  </si>
+  <si>
+    <t>hospitalizations</t>
+  </si>
+  <si>
+    <t>cases, demographics, climate, mobility, policy</t>
+  </si>
+  <si>
+    <t>cases, deaths, testing, policy, mobility, demographics, human behavior</t>
+  </si>
+  <si>
+    <t>deaths, demographics, policy</t>
+  </si>
+  <si>
+    <t>cases, hospitalizations, deaths, demographics</t>
+  </si>
+  <si>
+    <t>mobility, demographics, cases, deaths</t>
+  </si>
+  <si>
+    <t>cases, deaths, demographics, mobility</t>
+  </si>
+  <si>
+    <t>mobility, cases, demographics</t>
+  </si>
+  <si>
+    <t>mobility, cases, hospitalizations, demographics</t>
+  </si>
+  <si>
+    <t>demographics, hospitalizations, health risk factors, vaccination</t>
+  </si>
+  <si>
+    <t>cases, deaths, curves of probabilities that cases/deaths/recoveries will exceed certain values</t>
+  </si>
+  <si>
+    <t>cases, deaths, hospitalizations, tests</t>
+  </si>
+  <si>
+    <t>cases, deaths, peak cases, peak deaths, total deaths</t>
+  </si>
+  <si>
+    <t>cases, deaths, demographics, hospital resources</t>
+  </si>
+  <si>
+    <t>Long-term</t>
+  </si>
+  <si>
+    <t>Short-term</t>
+  </si>
+  <si>
+    <t>Short-term </t>
+  </si>
+  <si>
+    <t>Long-term, Scenarios, Interventions</t>
+  </si>
+  <si>
+    <t>Long-term, Scenarios</t>
+  </si>
+  <si>
+    <t>Long-term, Interventions</t>
+  </si>
+  <si>
+    <t>Long-term, Interventions, Scenarios</t>
+  </si>
+  <si>
+    <t>Short-term, Long-term, Scenarios, Interventions</t>
+  </si>
+  <si>
+    <t>Short-term, Scenarios, Long-term</t>
+  </si>
+  <si>
+    <t>Short-term, Long-term, Scenarios</t>
+  </si>
+  <si>
+    <t>Interventions, Scenarios, Long-term</t>
+  </si>
+  <si>
+    <t>Long-term </t>
+  </si>
+  <si>
+    <t>Short-term, Long-term</t>
+  </si>
+  <si>
+    <t>Short-term, Long-term, Interventions, Scenarios</t>
   </si>
 </sst>
 </file>
@@ -1703,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA921ED-BF1D-1444-AF99-26FBE1ABE33C}">
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C60" zoomScale="242" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="242" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1745,10 +1700,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -1786,212 +1741,212 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1999,5620 +1954,5620 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>53</v>
+        <v>384</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>379</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>64</v>
+        <v>381</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>143</v>
+        <v>386</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="J17" s="3" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J18" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J20" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J24" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>53</v>
+        <v>384</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="J34" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>105</v>
+        <v>387</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>107</v>
+        <v>377</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>94</v>
+        <v>389</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H41" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="M41" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="N47" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>132</v>
+        <v>374</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="K52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N52" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="J53" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="H55" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="G57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J57" s="3" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>143</v>
+        <v>386</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>89</v>
+        <v>381</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="G61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J61" s="3" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H64" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="J64" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J66" s="3" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>165</v>
+        <v>378</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>173</v>
+        <v>368</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M76" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="N76" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="G77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J77" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>53</v>
+        <v>384</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J81" s="3" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>201</v>
+        <v>365</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>143</v>
+        <v>386</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J87" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L87" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L87" s="3" t="s">
+      <c r="M87" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N87" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="G88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K88" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="L88" s="3" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>218</v>
+        <v>391</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>208</v>
+        <v>366</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>53</v>
+        <v>384</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J95" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H97" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I97" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I97" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="J97" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>105</v>
+        <v>387</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H100" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I100" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="J100" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>229</v>
+        <v>392</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>352</v>
+        <v>105</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>238</v>
+        <v>370</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="G108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K108" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H108" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="L108" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>248</v>
+        <v>382</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I111" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H111" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J111" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H116" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I116" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I116" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="J116" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N121" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="N121" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="G123" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I123" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H123" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J123" s="3" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G126" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I126" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H126" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J126" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>282</v>
+        <v>371</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H127" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I127" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I127" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="J127" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>274</v>
+        <v>372</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H129" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I129" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I129" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="J129" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>53</v>
+        <v>384</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L137" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F137" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K137" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L137" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="M137" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>229</v>
+        <v>392</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N139" s="3" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
